--- a/Data/GEF Field Trial/GEF_Woody canopy_2017.10.16_Mdoda.xlsx
+++ b/Data/GEF Field Trial/GEF_Woody canopy_2017.10.16_Mdoda.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GEF project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Projects\PhD GeoInformatics\Data\GEF Field Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="INT-Woody spp" sheetId="1" r:id="rId1"/>
-    <sheet name="TCH-Woody spp" sheetId="9" r:id="rId2"/>
+    <sheet name="INT-01" sheetId="10" r:id="rId1"/>
+    <sheet name="INT-03" sheetId="11" r:id="rId2"/>
+    <sheet name="INT-07" sheetId="1" r:id="rId3"/>
+    <sheet name="TCH-01" sheetId="9" r:id="rId4"/>
+    <sheet name="TCH-03" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="54">
   <si>
     <t>Plot No:</t>
   </si>
@@ -185,11 +188,14 @@
   <si>
     <t>Asparagus capensis</t>
   </si>
+  <si>
+    <t>ovata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -291,12 +297,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -574,7 +651,7 @@
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +661,7 @@
     <col min="3" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -639,36 +716,16 @@
         <v>2</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -688,37 +745,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -734,30 +771,6 @@
         <v>83</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="H6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>63</v>
-      </c>
-      <c r="J6" s="2">
-        <v>96</v>
-      </c>
-      <c r="K6" s="2">
-        <v>98</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>192</v>
-      </c>
-      <c r="P6" s="2">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>152</v>
-      </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -775,30 +788,6 @@
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2">
-        <v>87</v>
-      </c>
-      <c r="J7" s="2">
-        <v>147</v>
-      </c>
-      <c r="K7" s="2">
-        <v>132</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2">
-        <v>205</v>
-      </c>
-      <c r="P7" s="2">
-        <v>322</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>147</v>
-      </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -814,33 +803,6 @@
         <v>257</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>126</v>
-      </c>
-      <c r="J8" s="2">
-        <v>415</v>
-      </c>
-      <c r="K8" s="2">
-        <v>208</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2">
-        <v>192</v>
-      </c>
-      <c r="P8" s="2">
-        <v>310</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>126</v>
-      </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -856,30 +818,6 @@
         <v>50</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="H9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>112</v>
-      </c>
-      <c r="J9" s="2">
-        <v>151</v>
-      </c>
-      <c r="K9" s="2">
-        <v>119</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="2">
-        <v>105</v>
-      </c>
-      <c r="P9" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>158</v>
-      </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -895,30 +833,6 @@
         <v>176</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2">
-        <v>75</v>
-      </c>
-      <c r="K10" s="2">
-        <v>119</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="2">
-        <v>145</v>
-      </c>
-      <c r="P10" s="2">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>182</v>
-      </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
@@ -934,33 +848,6 @@
         <v>120</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>61</v>
-      </c>
-      <c r="J11" s="2">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2">
-        <v>99</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="2">
-        <v>185</v>
-      </c>
-      <c r="P11" s="2">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>175</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
@@ -976,30 +863,6 @@
         <v>47</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="H12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>266</v>
-      </c>
-      <c r="J12" s="2">
-        <v>176</v>
-      </c>
-      <c r="K12" s="2">
-        <v>164</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="2">
-        <v>145</v>
-      </c>
-      <c r="P12" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>110</v>
-      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -1015,34 +878,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2">
-        <v>119</v>
-      </c>
-      <c r="J13" s="2">
-        <v>131</v>
-      </c>
-      <c r="K13" s="2">
-        <v>117</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="2">
-        <v>37</v>
-      </c>
-      <c r="P13" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>35</v>
-      </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>5</v>
+      <c r="B14" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="6">
         <v>27</v>
@@ -1054,30 +893,6 @@
         <v>22</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="2">
-        <v>79</v>
-      </c>
-      <c r="J14" s="2">
-        <v>129</v>
-      </c>
-      <c r="K14" s="2">
-        <v>126</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="2">
-        <v>125</v>
-      </c>
-      <c r="P14" s="2">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>88</v>
-      </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
@@ -1093,30 +908,6 @@
         <v>34</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2">
-        <v>113</v>
-      </c>
-      <c r="J15" s="2">
-        <v>223</v>
-      </c>
-      <c r="K15" s="2">
-        <v>50</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" s="2">
-        <v>19</v>
-      </c>
-      <c r="P15" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>25</v>
-      </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
@@ -1132,32 +923,8 @@
         <v>30</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="2">
-        <v>49</v>
-      </c>
-      <c r="J16" s="2">
-        <v>76</v>
-      </c>
-      <c r="K16" s="2">
-        <v>75</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="2">
-        <v>82</v>
-      </c>
-      <c r="P16" s="2">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1171,32 +938,8 @@
         <v>357</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="H17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="2">
-        <v>157</v>
-      </c>
-      <c r="J17" s="2">
-        <v>188</v>
-      </c>
-      <c r="K17" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="2">
-        <v>372</v>
-      </c>
-      <c r="P17" s="2">
-        <v>552</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1210,32 +953,8 @@
         <v>230</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="H18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="2">
-        <v>81</v>
-      </c>
-      <c r="J18" s="2">
-        <v>105</v>
-      </c>
-      <c r="K18" s="2">
-        <v>25</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="2">
-        <v>342</v>
-      </c>
-      <c r="P18" s="2">
-        <v>510</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
@@ -1249,32 +968,8 @@
         <v>210</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="2">
-        <v>74</v>
-      </c>
-      <c r="J19" s="2">
-        <v>72</v>
-      </c>
-      <c r="K19" s="2">
-        <v>113</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="2">
-        <v>90</v>
-      </c>
-      <c r="P19" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
@@ -1288,32 +983,8 @@
         <v>102</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="2">
-        <v>22</v>
-      </c>
-      <c r="J20" s="2">
-        <v>21</v>
-      </c>
-      <c r="K20" s="2">
-        <v>58</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="2">
-        <v>110</v>
-      </c>
-      <c r="P20" s="2">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -1327,32 +998,8 @@
         <v>210</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="H21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="2">
-        <v>41</v>
-      </c>
-      <c r="J21" s="2">
-        <v>55</v>
-      </c>
-      <c r="K21" s="2">
-        <v>32</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="2">
-        <v>122</v>
-      </c>
-      <c r="P21" s="2">
-        <v>105</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1366,32 +1013,8 @@
         <v>167</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="H22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="2">
-        <v>195</v>
-      </c>
-      <c r="J22" s="2">
-        <v>212</v>
-      </c>
-      <c r="K22" s="2">
-        <v>106</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="2">
-        <v>84</v>
-      </c>
-      <c r="P22" s="2">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -1405,32 +1028,8 @@
         <v>37</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="H23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="2">
-        <v>31</v>
-      </c>
-      <c r="J23" s="2">
-        <v>41</v>
-      </c>
-      <c r="K23" s="2">
-        <v>81</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="2">
-        <v>52</v>
-      </c>
-      <c r="P23" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1444,32 +1043,8 @@
         <v>30</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="H24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="2">
-        <v>42</v>
-      </c>
-      <c r="J24" s="2">
-        <v>43</v>
-      </c>
-      <c r="K24" s="2">
-        <v>73</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="2">
-        <v>62</v>
-      </c>
-      <c r="P24" s="2">
-        <v>93</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1483,32 +1058,8 @@
         <v>14</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="H25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="2">
-        <v>42</v>
-      </c>
-      <c r="J25" s="2">
-        <v>46</v>
-      </c>
-      <c r="K25" s="2">
-        <v>20</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="2">
-        <v>232</v>
-      </c>
-      <c r="P25" s="2">
-        <v>213</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
@@ -1524,32 +1075,8 @@
       <c r="F26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="2">
-        <v>61</v>
-      </c>
-      <c r="J26" s="2">
-        <v>67</v>
-      </c>
-      <c r="K26" s="2">
-        <v>62</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="2">
-        <v>78</v>
-      </c>
-      <c r="P26" s="2">
-        <v>43</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
@@ -1565,32 +1092,8 @@
       <c r="F27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2">
-        <v>83</v>
-      </c>
-      <c r="J27" s="2">
-        <v>67</v>
-      </c>
-      <c r="K27" s="2">
-        <v>5</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" s="2">
-        <v>132</v>
-      </c>
-      <c r="P27" s="2">
-        <v>110</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>3</v>
       </c>
@@ -1604,32 +1107,8 @@
         <v>173</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="H28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="2">
-        <v>124</v>
-      </c>
-      <c r="J28" s="2">
-        <v>176</v>
-      </c>
-      <c r="K28" s="2">
-        <v>77</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O28" s="2">
-        <v>195</v>
-      </c>
-      <c r="P28" s="2">
-        <v>155</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
@@ -1643,32 +1122,8 @@
         <v>52</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="H29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="2">
-        <v>41</v>
-      </c>
-      <c r="J29" s="2">
-        <v>67</v>
-      </c>
-      <c r="K29" s="2">
-        <v>71</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="2">
-        <v>112</v>
-      </c>
-      <c r="P29" s="2">
-        <v>132</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
@@ -1682,32 +1137,8 @@
         <v>20</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="H30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="2">
-        <v>185</v>
-      </c>
-      <c r="J30" s="2">
-        <v>231</v>
-      </c>
-      <c r="K30" s="2">
-        <v>132</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O30" s="2">
-        <v>116</v>
-      </c>
-      <c r="P30" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
@@ -1721,32 +1152,8 @@
         <v>11</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="H31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="2">
-        <v>69</v>
-      </c>
-      <c r="J31" s="2">
-        <v>51</v>
-      </c>
-      <c r="K31" s="2">
-        <v>81</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O31" s="2">
-        <v>82</v>
-      </c>
-      <c r="P31" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>28</v>
       </c>
@@ -1760,35 +1167,8 @@
         <v>12</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="H32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="2">
-        <v>192</v>
-      </c>
-      <c r="J32" s="2">
-        <v>195</v>
-      </c>
-      <c r="K32" s="2">
-        <v>125</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="2">
-        <v>116</v>
-      </c>
-      <c r="P32" s="2">
-        <v>225</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>225</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>28</v>
       </c>
@@ -1802,32 +1182,8 @@
         <v>32</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="H33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="2">
-        <v>116</v>
-      </c>
-      <c r="J33" s="2">
-        <v>96</v>
-      </c>
-      <c r="K33" s="2">
-        <v>49</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="2">
-        <v>43</v>
-      </c>
-      <c r="P33" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
@@ -1841,32 +1197,8 @@
         <v>32</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="H34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="2">
-        <v>8</v>
-      </c>
-      <c r="J34" s="2">
-        <v>10</v>
-      </c>
-      <c r="K34" s="2">
-        <v>11</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O34" s="2">
-        <v>210</v>
-      </c>
-      <c r="P34" s="2">
-        <v>222</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -1880,32 +1212,8 @@
         <v>10</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="H35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="2">
-        <v>26</v>
-      </c>
-      <c r="J35" s="2">
-        <v>34</v>
-      </c>
-      <c r="K35" s="2">
-        <v>51</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" s="2">
-        <v>103</v>
-      </c>
-      <c r="P35" s="2">
-        <v>122</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>5</v>
       </c>
@@ -1919,32 +1227,8 @@
         <v>56</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="H36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="2">
-        <v>67</v>
-      </c>
-      <c r="J36" s="2">
-        <v>61</v>
-      </c>
-      <c r="K36" s="2">
-        <v>81</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" s="2">
-        <v>79</v>
-      </c>
-      <c r="P36" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>10</v>
       </c>
@@ -1958,32 +1242,8 @@
         <v>35</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="H37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="2">
-        <v>285</v>
-      </c>
-      <c r="J37" s="2">
-        <v>173</v>
-      </c>
-      <c r="K37" s="2">
-        <v>145</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="2">
-        <v>86</v>
-      </c>
-      <c r="P37" s="2">
-        <v>132</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
@@ -1997,32 +1257,8 @@
         <v>245</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="H38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="2">
-        <v>82</v>
-      </c>
-      <c r="J38" s="2">
-        <v>81</v>
-      </c>
-      <c r="K38" s="2">
-        <v>89</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O38" s="2">
-        <v>62</v>
-      </c>
-      <c r="P38" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
@@ -2036,38 +1272,8 @@
         <v>212</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="H39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="2">
-        <v>194</v>
-      </c>
-      <c r="J39" s="2">
-        <v>127</v>
-      </c>
-      <c r="K39" s="2">
-        <v>199</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O39" s="2">
-        <v>102</v>
-      </c>
-      <c r="P39" s="2">
-        <v>105</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>105</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>3</v>
       </c>
@@ -2081,35 +1287,8 @@
         <v>73</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="H40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="2">
-        <v>52</v>
-      </c>
-      <c r="J40" s="2">
-        <v>40</v>
-      </c>
-      <c r="K40" s="2">
-        <v>41</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40" s="2">
-        <v>53</v>
-      </c>
-      <c r="P40" s="2">
-        <v>43</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>95</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>5</v>
       </c>
@@ -2123,32 +1302,8 @@
         <v>146</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="H41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="2">
-        <v>22</v>
-      </c>
-      <c r="J41" s="2">
-        <v>27</v>
-      </c>
-      <c r="K41" s="2">
-        <v>34</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O41" s="2">
-        <v>114</v>
-      </c>
-      <c r="P41" s="2">
-        <v>152</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>3</v>
       </c>
@@ -2162,32 +1317,8 @@
         <v>68</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="H42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="2">
-        <v>74</v>
-      </c>
-      <c r="J42" s="2">
-        <v>117</v>
-      </c>
-      <c r="K42" s="2">
-        <v>76</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O42" s="2">
-        <v>85</v>
-      </c>
-      <c r="P42" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>3</v>
       </c>
@@ -2201,32 +1332,8 @@
         <v>144</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="H43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="2">
-        <v>15</v>
-      </c>
-      <c r="J43" s="2">
-        <v>17</v>
-      </c>
-      <c r="K43" s="2">
-        <v>47</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O43" s="2">
-        <v>95</v>
-      </c>
-      <c r="P43" s="2">
-        <v>132</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>4</v>
       </c>
@@ -2240,32 +1347,8 @@
         <v>146</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="H44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="2">
-        <v>32</v>
-      </c>
-      <c r="J44" s="2">
-        <v>43</v>
-      </c>
-      <c r="K44" s="2">
-        <v>59</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" s="2">
-        <v>82</v>
-      </c>
-      <c r="P44" s="2">
-        <v>92</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>4</v>
       </c>
@@ -2279,32 +1362,8 @@
         <v>30</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="H45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="2">
-        <v>8</v>
-      </c>
-      <c r="J45" s="2">
-        <v>9</v>
-      </c>
-      <c r="K45" s="2">
-        <v>15</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="2">
-        <v>55</v>
-      </c>
-      <c r="P45" s="2">
-        <v>198</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>3</v>
       </c>
@@ -2318,32 +1377,8 @@
         <v>50</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="H46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="2">
-        <v>84</v>
-      </c>
-      <c r="J46" s="2">
-        <v>104</v>
-      </c>
-      <c r="K46" s="2">
-        <v>126</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="2">
-        <v>102</v>
-      </c>
-      <c r="P46" s="2">
-        <v>142</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>11</v>
       </c>
@@ -2357,32 +1392,8 @@
         <v>68</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="H47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="2">
-        <v>27</v>
-      </c>
-      <c r="J47" s="2">
-        <v>43</v>
-      </c>
-      <c r="K47" s="2">
-        <v>35</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O47" s="2">
-        <v>182</v>
-      </c>
-      <c r="P47" s="2">
-        <v>125</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
@@ -2398,32 +1409,8 @@
       <c r="F48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="2">
-        <v>88</v>
-      </c>
-      <c r="J48" s="2">
-        <v>105</v>
-      </c>
-      <c r="K48" s="2">
-        <v>82</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O48" s="2">
-        <v>122</v>
-      </c>
-      <c r="P48" s="2">
-        <v>139</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
@@ -2437,32 +1424,8 @@
         <v>332</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="H49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="2">
-        <v>52</v>
-      </c>
-      <c r="J49" s="2">
-        <v>58</v>
-      </c>
-      <c r="K49" s="2">
-        <v>92</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="2">
-        <v>66</v>
-      </c>
-      <c r="P49" s="2">
-        <v>86</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>4</v>
       </c>
@@ -2476,32 +1439,8 @@
         <v>232</v>
       </c>
       <c r="F50" s="6"/>
-      <c r="H50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="2">
-        <v>15</v>
-      </c>
-      <c r="J50" s="2">
-        <v>24</v>
-      </c>
-      <c r="K50" s="2">
-        <v>25</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O50" s="2">
-        <v>15</v>
-      </c>
-      <c r="P50" s="2">
-        <v>28</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
@@ -2515,32 +1454,8 @@
         <v>182</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="H51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="2">
-        <v>77</v>
-      </c>
-      <c r="J51" s="2">
-        <v>78</v>
-      </c>
-      <c r="K51" s="2">
-        <v>76</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O51" s="2">
-        <v>149</v>
-      </c>
-      <c r="P51" s="2">
-        <v>151</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>13</v>
       </c>
@@ -2554,32 +1469,8 @@
         <v>210</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="H52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="2">
-        <v>59</v>
-      </c>
-      <c r="J52" s="2">
-        <v>96</v>
-      </c>
-      <c r="K52" s="2">
-        <v>88</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="2">
-        <v>59</v>
-      </c>
-      <c r="P52" s="2">
-        <v>64</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>5</v>
       </c>
@@ -2593,32 +1484,8 @@
         <v>165</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="H53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="2">
-        <v>39</v>
-      </c>
-      <c r="J53" s="2">
-        <v>51</v>
-      </c>
-      <c r="K53" s="2">
-        <v>74</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O53" s="2">
-        <v>182</v>
-      </c>
-      <c r="P53" s="2">
-        <v>192</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>3</v>
       </c>
@@ -2632,35 +1499,8 @@
         <v>152</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="H54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="2">
-        <v>18</v>
-      </c>
-      <c r="J54" s="2">
-        <v>26</v>
-      </c>
-      <c r="K54" s="2">
-        <v>34</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="2">
-        <v>138</v>
-      </c>
-      <c r="P54" s="2">
-        <v>135</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>199</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
@@ -2674,32 +1514,8 @@
         <v>142</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="H55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="2">
-        <v>16</v>
-      </c>
-      <c r="J55" s="2">
-        <v>21</v>
-      </c>
-      <c r="K55" s="2">
-        <v>25</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O55" s="2">
-        <v>107</v>
-      </c>
-      <c r="P55" s="2">
-        <v>88</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>3</v>
       </c>
@@ -2713,32 +1529,8 @@
         <v>155</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="H56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="2">
-        <v>67</v>
-      </c>
-      <c r="J56" s="2">
-        <v>61</v>
-      </c>
-      <c r="K56" s="2">
-        <v>50</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O56" s="2">
-        <v>112</v>
-      </c>
-      <c r="P56" s="2">
-        <v>172</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>28</v>
       </c>
@@ -2752,32 +1544,8 @@
         <v>210</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="H57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="2">
-        <v>78</v>
-      </c>
-      <c r="J57" s="2">
-        <v>43</v>
-      </c>
-      <c r="K57" s="2">
-        <v>34</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O57" s="2">
-        <v>85</v>
-      </c>
-      <c r="P57" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>28</v>
       </c>
@@ -2791,32 +1559,8 @@
         <v>32</v>
       </c>
       <c r="F58" s="6"/>
-      <c r="H58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="2">
-        <v>16</v>
-      </c>
-      <c r="J58" s="2">
-        <v>24</v>
-      </c>
-      <c r="K58" s="2">
-        <v>23</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O58" s="2">
-        <v>125</v>
-      </c>
-      <c r="P58" s="2">
-        <v>153</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>7</v>
       </c>
@@ -2830,32 +1574,8 @@
         <v>307</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="H59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="2">
-        <v>81</v>
-      </c>
-      <c r="J59" s="2">
-        <v>134</v>
-      </c>
-      <c r="K59" s="2">
-        <v>115</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="2">
-        <v>116</v>
-      </c>
-      <c r="P59" s="2">
-        <v>172</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>3</v>
       </c>
@@ -2869,32 +1589,8 @@
         <v>68</v>
       </c>
       <c r="F60" s="6"/>
-      <c r="H60" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" s="2">
-        <v>58</v>
-      </c>
-      <c r="J60" s="2">
-        <v>167</v>
-      </c>
-      <c r="K60" s="2">
-        <v>102</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O60" s="2">
-        <v>42</v>
-      </c>
-      <c r="P60" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>3</v>
       </c>
@@ -2908,32 +1604,8 @@
         <v>131</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="H61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I61" s="2">
-        <v>89</v>
-      </c>
-      <c r="J61" s="2">
-        <v>80</v>
-      </c>
-      <c r="K61" s="2">
-        <v>89</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O61" s="2">
-        <v>28</v>
-      </c>
-      <c r="P61" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>5</v>
       </c>
@@ -2947,32 +1619,8 @@
         <v>186</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="H62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" s="2">
-        <v>87</v>
-      </c>
-      <c r="J62" s="2">
-        <v>89</v>
-      </c>
-      <c r="K62" s="2">
-        <v>111</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="2">
-        <v>182</v>
-      </c>
-      <c r="P62" s="2">
-        <v>232</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>3</v>
       </c>
@@ -2986,32 +1634,8 @@
         <v>144</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="H63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="2">
-        <v>91</v>
-      </c>
-      <c r="J63" s="2">
-        <v>101</v>
-      </c>
-      <c r="K63" s="2">
-        <v>121</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O63" s="2">
-        <v>172</v>
-      </c>
-      <c r="P63" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>4</v>
       </c>
@@ -3025,32 +1649,8 @@
         <v>242</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="H64" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64" s="2">
-        <v>55</v>
-      </c>
-      <c r="J64" s="2">
-        <v>58</v>
-      </c>
-      <c r="K64" s="2">
-        <v>85</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O64" s="2">
-        <v>132</v>
-      </c>
-      <c r="P64" s="2">
-        <v>129</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>14</v>
       </c>
@@ -3064,32 +1664,8 @@
         <v>183</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="H65" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="2">
-        <v>84</v>
-      </c>
-      <c r="J65" s="2">
-        <v>78</v>
-      </c>
-      <c r="K65" s="2">
-        <v>93</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O65" s="2">
-        <v>123</v>
-      </c>
-      <c r="P65" s="2">
-        <v>189</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>5</v>
       </c>
@@ -3103,32 +1679,8 @@
         <v>173</v>
       </c>
       <c r="F66" s="6"/>
-      <c r="H66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="2">
-        <v>222</v>
-      </c>
-      <c r="J66" s="2">
-        <v>231</v>
-      </c>
-      <c r="K66" s="2">
-        <v>136</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O66" s="2">
-        <v>94</v>
-      </c>
-      <c r="P66" s="2">
-        <v>49</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>4</v>
       </c>
@@ -3142,32 +1694,8 @@
         <v>177</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="H67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I67" s="2">
-        <v>32</v>
-      </c>
-      <c r="J67" s="2">
-        <v>37</v>
-      </c>
-      <c r="K67" s="2">
-        <v>77</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O67" s="2">
-        <v>55</v>
-      </c>
-      <c r="P67" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>4</v>
       </c>
@@ -3181,32 +1709,8 @@
         <v>260</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="H68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I68" s="2">
-        <v>66</v>
-      </c>
-      <c r="J68" s="2">
-        <v>146</v>
-      </c>
-      <c r="K68" s="2">
-        <v>105</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O68" s="2">
-        <v>122</v>
-      </c>
-      <c r="P68" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>14</v>
       </c>
@@ -3220,32 +1724,8 @@
         <v>42</v>
       </c>
       <c r="F69" s="6"/>
-      <c r="H69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I69" s="2">
-        <v>83</v>
-      </c>
-      <c r="J69" s="2">
-        <v>101</v>
-      </c>
-      <c r="K69" s="2">
-        <v>97</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O69" s="2">
-        <v>142</v>
-      </c>
-      <c r="P69" s="2">
-        <v>132</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>3</v>
       </c>
@@ -3259,32 +1739,8 @@
         <v>127</v>
       </c>
       <c r="F70" s="6"/>
-      <c r="H70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" s="2">
-        <v>72</v>
-      </c>
-      <c r="J70" s="2">
-        <v>76</v>
-      </c>
-      <c r="K70" s="2">
-        <v>101</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O70" s="2">
-        <v>129</v>
-      </c>
-      <c r="P70" s="2">
-        <v>123</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>4</v>
       </c>
@@ -3298,32 +1754,8 @@
         <v>241</v>
       </c>
       <c r="F71" s="6"/>
-      <c r="H71" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" s="2">
-        <v>11</v>
-      </c>
-      <c r="J71" s="2">
-        <v>14</v>
-      </c>
-      <c r="K71" s="2">
-        <v>15</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O71" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2">
-        <v>42</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>5</v>
       </c>
@@ -3337,32 +1769,8 @@
         <v>266</v>
       </c>
       <c r="F72" s="6"/>
-      <c r="H72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="2">
-        <v>41</v>
-      </c>
-      <c r="J72" s="2">
-        <v>37</v>
-      </c>
-      <c r="K72" s="2">
-        <v>24</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O72" s="2">
-        <v>122</v>
-      </c>
-      <c r="P72" s="2">
-        <v>42</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>4</v>
       </c>
@@ -3376,35 +1784,8 @@
         <v>228</v>
       </c>
       <c r="F73" s="6"/>
-      <c r="H73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="2">
-        <v>66</v>
-      </c>
-      <c r="J73" s="2">
-        <v>178</v>
-      </c>
-      <c r="K73" s="2">
-        <v>185</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O73" s="2">
-        <v>85</v>
-      </c>
-      <c r="P73" s="2">
-        <v>92</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>15</v>
       </c>
@@ -3418,32 +1799,8 @@
         <v>286</v>
       </c>
       <c r="F74" s="6"/>
-      <c r="H74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74" s="2">
-        <v>142</v>
-      </c>
-      <c r="J74" s="2">
-        <v>71</v>
-      </c>
-      <c r="K74" s="2">
-        <v>105</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O74" s="2">
-        <v>95</v>
-      </c>
-      <c r="P74" s="2">
-        <v>42</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>4</v>
       </c>
@@ -3457,32 +1814,8 @@
         <v>240</v>
       </c>
       <c r="F75" s="6"/>
-      <c r="H75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I75" s="2">
-        <v>129</v>
-      </c>
-      <c r="J75" s="2">
-        <v>159</v>
-      </c>
-      <c r="K75" s="2">
-        <v>129</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O75" s="2">
-        <v>82</v>
-      </c>
-      <c r="P75" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>16</v>
       </c>
@@ -3496,32 +1829,8 @@
         <v>31</v>
       </c>
       <c r="F76" s="6"/>
-      <c r="H76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="2">
-        <v>194</v>
-      </c>
-      <c r="J76" s="2">
-        <v>233</v>
-      </c>
-      <c r="K76" s="2">
-        <v>157</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="2">
-        <v>52</v>
-      </c>
-      <c r="P76" s="2">
-        <v>45</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>4</v>
       </c>
@@ -3535,32 +1844,8 @@
         <v>241</v>
       </c>
       <c r="F77" s="6"/>
-      <c r="H77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I77" s="2">
-        <v>32</v>
-      </c>
-      <c r="J77" s="2">
-        <v>35</v>
-      </c>
-      <c r="K77" s="2">
-        <v>43</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O77" s="2">
-        <v>69</v>
-      </c>
-      <c r="P77" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>17</v>
       </c>
@@ -3574,32 +1859,8 @@
         <v>57</v>
       </c>
       <c r="F78" s="6"/>
-      <c r="H78" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="2">
-        <v>43</v>
-      </c>
-      <c r="J78" s="2">
-        <v>47</v>
-      </c>
-      <c r="K78" s="2">
-        <v>92</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O78" s="2">
-        <v>142</v>
-      </c>
-      <c r="P78" s="2">
-        <v>209</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>17</v>
       </c>
@@ -3613,32 +1874,8 @@
         <v>46</v>
       </c>
       <c r="F79" s="6"/>
-      <c r="H79" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="2">
-        <v>32</v>
-      </c>
-      <c r="J79" s="2">
-        <v>22</v>
-      </c>
-      <c r="K79" s="2">
-        <v>28</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O79" s="2">
-        <v>110</v>
-      </c>
-      <c r="P79" s="2">
-        <v>155</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>17</v>
       </c>
@@ -3652,35 +1889,8 @@
         <v>48</v>
       </c>
       <c r="F80" s="6"/>
-      <c r="H80" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="2">
-        <v>10</v>
-      </c>
-      <c r="J80" s="2">
-        <v>15</v>
-      </c>
-      <c r="K80" s="2">
-        <v>23</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O80" s="2">
-        <v>199</v>
-      </c>
-      <c r="P80" s="2">
-        <v>162</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>205</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>4</v>
       </c>
@@ -3694,32 +1904,8 @@
         <v>219</v>
       </c>
       <c r="F81" s="6"/>
-      <c r="H81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="2">
-        <v>74</v>
-      </c>
-      <c r="J81" s="2">
-        <v>83</v>
-      </c>
-      <c r="K81" s="2">
-        <v>103</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="2">
-        <v>185</v>
-      </c>
-      <c r="P81" s="2">
-        <v>116</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
         <v>18</v>
       </c>
@@ -3733,32 +1919,8 @@
         <v>12</v>
       </c>
       <c r="F82" s="6"/>
-      <c r="H82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I82" s="2">
-        <v>23</v>
-      </c>
-      <c r="J82" s="2">
-        <v>25</v>
-      </c>
-      <c r="K82" s="2">
-        <v>54</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O82" s="2">
-        <v>65</v>
-      </c>
-      <c r="P82" s="2">
-        <v>57</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>3</v>
       </c>
@@ -3772,32 +1934,8 @@
         <v>146</v>
       </c>
       <c r="F83" s="6"/>
-      <c r="H83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="2">
-        <v>101</v>
-      </c>
-      <c r="J83" s="2">
-        <v>60</v>
-      </c>
-      <c r="K83" s="2">
-        <v>92</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O83" s="2">
-        <v>122</v>
-      </c>
-      <c r="P83" s="2">
-        <v>135</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>3</v>
       </c>
@@ -3811,32 +1949,8 @@
         <v>165</v>
       </c>
       <c r="F84" s="6"/>
-      <c r="H84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I84" s="2">
-        <v>39</v>
-      </c>
-      <c r="J84" s="2">
-        <v>74</v>
-      </c>
-      <c r="K84" s="2">
-        <v>52</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O84" s="2">
-        <v>51</v>
-      </c>
-      <c r="P84" s="2">
-        <v>42</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>3</v>
       </c>
@@ -3850,32 +1964,8 @@
         <v>47</v>
       </c>
       <c r="F85" s="6"/>
-      <c r="H85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I85" s="2">
-        <v>35</v>
-      </c>
-      <c r="J85" s="2">
-        <v>62</v>
-      </c>
-      <c r="K85" s="2">
-        <v>52</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O85" s="2">
-        <v>110</v>
-      </c>
-      <c r="P85" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="86" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>3</v>
       </c>
@@ -3889,32 +1979,8 @@
         <v>69</v>
       </c>
       <c r="F86" s="6"/>
-      <c r="H86" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" s="2">
-        <v>42</v>
-      </c>
-      <c r="J86" s="2">
-        <v>55</v>
-      </c>
-      <c r="K86" s="2">
-        <v>64</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O86" s="2">
-        <v>79</v>
-      </c>
-      <c r="P86" s="2">
-        <v>86</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>19</v>
       </c>
@@ -3928,32 +1994,8 @@
         <v>34</v>
       </c>
       <c r="F87" s="6"/>
-      <c r="H87" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I87" s="2">
-        <v>22</v>
-      </c>
-      <c r="J87" s="2">
-        <v>28</v>
-      </c>
-      <c r="K87" s="2">
-        <v>51</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O87" s="2">
-        <v>43</v>
-      </c>
-      <c r="P87" s="2">
-        <v>52</v>
-      </c>
-      <c r="Q87" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>3</v>
       </c>
@@ -3967,32 +2009,8 @@
         <v>51</v>
       </c>
       <c r="F88" s="6"/>
-      <c r="H88" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" s="2">
-        <v>33</v>
-      </c>
-      <c r="J88" s="2">
-        <v>36</v>
-      </c>
-      <c r="K88" s="2">
-        <v>38</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O88" s="2">
-        <v>207</v>
-      </c>
-      <c r="P88" s="2">
-        <v>232</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>3</v>
       </c>
@@ -4006,32 +2024,8 @@
         <v>34</v>
       </c>
       <c r="F89" s="6"/>
-      <c r="H89" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I89" s="2">
-        <v>34</v>
-      </c>
-      <c r="J89" s="2">
-        <v>42</v>
-      </c>
-      <c r="K89" s="2">
-        <v>71</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="2">
-        <v>107</v>
-      </c>
-      <c r="P89" s="2">
-        <v>147</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>17</v>
       </c>
@@ -4045,32 +2039,8 @@
         <v>27</v>
       </c>
       <c r="F90" s="6"/>
-      <c r="H90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J90" s="2">
-        <v>34</v>
-      </c>
-      <c r="K90" s="2">
-        <v>64</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O90" s="2">
-        <v>358</v>
-      </c>
-      <c r="P90" s="2">
-        <v>333</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>20</v>
       </c>
@@ -4084,35 +2054,8 @@
         <v>18</v>
       </c>
       <c r="F91" s="6"/>
-      <c r="H91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I91" s="2">
-        <v>66</v>
-      </c>
-      <c r="J91" s="2">
-        <v>97</v>
-      </c>
-      <c r="K91" s="2">
-        <v>107</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="2">
-        <v>181</v>
-      </c>
-      <c r="P91" s="2">
-        <v>362</v>
-      </c>
-      <c r="Q91" s="2">
-        <v>208</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>20</v>
       </c>
@@ -4126,32 +2069,8 @@
         <v>22</v>
       </c>
       <c r="F92" s="6"/>
-      <c r="H92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="2">
-        <v>69</v>
-      </c>
-      <c r="J92" s="2">
-        <v>101</v>
-      </c>
-      <c r="K92" s="2">
-        <v>72</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O92" s="2">
-        <v>118</v>
-      </c>
-      <c r="P92" s="2">
-        <v>92</v>
-      </c>
-      <c r="Q92" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>20</v>
       </c>
@@ -4165,32 +2084,8 @@
         <v>7</v>
       </c>
       <c r="F93" s="6"/>
-      <c r="H93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I93" s="2">
-        <v>59</v>
-      </c>
-      <c r="J93" s="2">
-        <v>77</v>
-      </c>
-      <c r="K93" s="2">
-        <v>74</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O93" s="2">
-        <v>46</v>
-      </c>
-      <c r="P93" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q93" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>28</v>
       </c>
@@ -4204,32 +2099,8 @@
         <v>6</v>
       </c>
       <c r="F94" s="6"/>
-      <c r="H94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I94" s="2">
-        <v>81</v>
-      </c>
-      <c r="J94" s="2">
-        <v>113</v>
-      </c>
-      <c r="K94" s="2">
-        <v>133</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="2">
-        <v>187</v>
-      </c>
-      <c r="P94" s="2">
-        <v>162</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
         <v>28</v>
       </c>
@@ -4243,32 +2114,8 @@
         <v>6</v>
       </c>
       <c r="F95" s="6"/>
-      <c r="H95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="2">
-        <v>123</v>
-      </c>
-      <c r="J95" s="2">
-        <v>129</v>
-      </c>
-      <c r="K95" s="2">
-        <v>103</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O95" s="2">
-        <v>45</v>
-      </c>
-      <c r="P95" s="2">
-        <v>42</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>28</v>
       </c>
@@ -4282,32 +2129,8 @@
         <v>4</v>
       </c>
       <c r="F96" s="6"/>
-      <c r="H96" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I96" s="2">
-        <v>69</v>
-      </c>
-      <c r="J96" s="2">
-        <v>71</v>
-      </c>
-      <c r="K96" s="2">
-        <v>93</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O96" s="2">
-        <v>11</v>
-      </c>
-      <c r="P96" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>20</v>
       </c>
@@ -4321,32 +2144,8 @@
         <v>5</v>
       </c>
       <c r="F97" s="6"/>
-      <c r="H97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I97" s="2">
-        <v>43</v>
-      </c>
-      <c r="J97" s="2">
-        <v>68</v>
-      </c>
-      <c r="K97" s="2">
-        <v>93</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O97" s="2">
-        <v>19</v>
-      </c>
-      <c r="P97" s="2">
-        <v>25</v>
-      </c>
-      <c r="Q97" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>20</v>
       </c>
@@ -4360,634 +2159,211 @@
         <v>7</v>
       </c>
       <c r="F98" s="6"/>
-      <c r="H98" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I98" s="2">
-        <v>138</v>
-      </c>
-      <c r="J98" s="2">
-        <v>154</v>
-      </c>
-      <c r="K98" s="2">
-        <v>163</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O98" s="2">
-        <v>35</v>
-      </c>
-      <c r="P98" s="2">
-        <v>54</v>
-      </c>
-      <c r="Q98" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="6"/>
-      <c r="H99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I99" s="2">
-        <v>41</v>
-      </c>
-      <c r="J99" s="2">
-        <v>58</v>
-      </c>
-      <c r="K99" s="2">
-        <v>81</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O99" s="2">
-        <v>51</v>
-      </c>
-      <c r="P99" s="2">
-        <v>54</v>
-      </c>
-      <c r="Q99" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="6"/>
-      <c r="H100" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I100" s="2">
-        <v>19</v>
-      </c>
-      <c r="J100" s="2">
-        <v>23</v>
-      </c>
-      <c r="K100" s="2">
-        <v>44</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O100" s="2">
-        <v>164</v>
-      </c>
-      <c r="P100" s="2">
-        <v>146</v>
-      </c>
-      <c r="Q100" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="6"/>
-      <c r="H101" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I101" s="2">
-        <v>62</v>
-      </c>
-      <c r="J101" s="2">
-        <v>66</v>
-      </c>
-      <c r="K101" s="2">
-        <v>92</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O101" s="2">
-        <v>157</v>
-      </c>
-      <c r="P101" s="2">
-        <v>160</v>
-      </c>
-      <c r="Q101" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="6"/>
-      <c r="H102" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I102" s="2">
-        <v>37</v>
-      </c>
-      <c r="J102" s="2">
-        <v>42</v>
-      </c>
-      <c r="K102" s="2">
-        <v>59</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="2">
-        <v>126</v>
-      </c>
-      <c r="P102" s="2">
-        <v>112</v>
-      </c>
-      <c r="Q102" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="6"/>
-      <c r="H103" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I103" s="2">
-        <v>19</v>
-      </c>
-      <c r="J103" s="2">
-        <v>44</v>
-      </c>
-      <c r="K103" s="2">
-        <v>52</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O103" s="2">
-        <v>39</v>
-      </c>
-      <c r="P103" s="2">
-        <v>44</v>
-      </c>
-      <c r="Q103" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="6"/>
-      <c r="H104" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I104" s="2">
-        <v>36</v>
-      </c>
-      <c r="J104" s="2">
-        <v>48</v>
-      </c>
-      <c r="K104" s="2">
-        <v>50</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O104" s="2">
-        <v>115</v>
-      </c>
-      <c r="P104" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q104" s="2">
-        <v>85</v>
-      </c>
-      <c r="R104" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="6"/>
-      <c r="H105" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I105" s="2">
-        <v>63</v>
-      </c>
-      <c r="J105" s="2">
-        <v>53</v>
-      </c>
-      <c r="K105" s="2">
-        <v>31</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O105" s="2">
-        <v>9</v>
-      </c>
-      <c r="P105" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q105" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="6"/>
-      <c r="H106" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I106" s="2">
-        <v>12</v>
-      </c>
-      <c r="J106" s="2">
-        <v>14</v>
-      </c>
-      <c r="K106" s="2">
-        <v>16</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O106" s="2">
-        <v>98</v>
-      </c>
-      <c r="P106" s="2">
-        <v>89</v>
-      </c>
-      <c r="Q106" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
-      <c r="H107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I107" s="2">
-        <v>62</v>
-      </c>
-      <c r="J107" s="2">
-        <v>72</v>
-      </c>
-      <c r="K107" s="2">
-        <v>42</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O107" s="2">
-        <v>73</v>
-      </c>
-      <c r="P107" s="2">
-        <v>64</v>
-      </c>
-      <c r="Q107" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
-      <c r="H108" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I108" s="2">
-        <v>52</v>
-      </c>
-      <c r="J108" s="2">
-        <v>46</v>
-      </c>
-      <c r="K108" s="2">
-        <v>66</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O108" s="2">
-        <v>222</v>
-      </c>
-      <c r="P108" s="2">
-        <v>125</v>
-      </c>
-      <c r="Q108" s="2">
-        <v>291</v>
-      </c>
-      <c r="R108" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
-      <c r="H109" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I109" s="2">
-        <v>48</v>
-      </c>
-      <c r="J109" s="2">
-        <v>73</v>
-      </c>
-      <c r="K109" s="2">
-        <v>62</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
-      <c r="H110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I110" s="2">
-        <v>113</v>
-      </c>
-      <c r="J110" s="2">
-        <v>157</v>
-      </c>
-      <c r="K110" s="2">
-        <v>152</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
-      <c r="H111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I111" s="2">
-        <v>315</v>
-      </c>
-      <c r="J111" s="2">
-        <v>501</v>
-      </c>
-      <c r="K111" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="112" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
-      <c r="H112" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I112" s="2">
-        <v>176</v>
-      </c>
-      <c r="J112" s="2">
-        <v>221</v>
-      </c>
-      <c r="K112" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
-      <c r="H113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I113" s="2">
-        <v>314</v>
-      </c>
-      <c r="J113" s="2">
-        <v>324</v>
-      </c>
-      <c r="K113" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
-      <c r="H114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="2">
-        <v>171</v>
-      </c>
-      <c r="J114" s="2">
-        <v>122</v>
-      </c>
-      <c r="K114" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
-      <c r="H115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I115" s="2">
-        <v>142</v>
-      </c>
-      <c r="J115" s="2">
-        <v>236</v>
-      </c>
-      <c r="K115" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
-      <c r="H116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I116" s="2">
-        <v>263</v>
-      </c>
-      <c r="J116" s="2">
-        <v>234</v>
-      </c>
-      <c r="K116" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
-      <c r="H117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I117" s="2">
-        <v>43</v>
-      </c>
-      <c r="J117" s="2">
-        <v>44</v>
-      </c>
-      <c r="K117" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
-      <c r="H118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I118" s="2">
-        <v>91</v>
-      </c>
-      <c r="J118" s="2">
-        <v>271</v>
-      </c>
-      <c r="K118" s="2">
-        <v>82</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="6"/>
-      <c r="H119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I119" s="2">
-        <v>36</v>
-      </c>
-      <c r="J119" s="2">
-        <v>38</v>
-      </c>
-      <c r="K119" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="6"/>
-      <c r="H120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I120" s="2">
-        <v>36</v>
-      </c>
-      <c r="J120" s="2">
-        <v>28</v>
-      </c>
-      <c r="K120" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
@@ -5002,13 +2378,3425 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2">
+        <v>147</v>
+      </c>
+      <c r="E7" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>126</v>
+      </c>
+      <c r="D8" s="2">
+        <v>415</v>
+      </c>
+      <c r="E8" s="2">
+        <v>208</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>112</v>
+      </c>
+      <c r="D9" s="2">
+        <v>151</v>
+      </c>
+      <c r="E9" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>266</v>
+      </c>
+      <c r="D12" s="2">
+        <v>176</v>
+      </c>
+      <c r="E12" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>119</v>
+      </c>
+      <c r="D13" s="2">
+        <v>131</v>
+      </c>
+      <c r="E13" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2">
+        <v>129</v>
+      </c>
+      <c r="E14" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>113</v>
+      </c>
+      <c r="D15" s="2">
+        <v>223</v>
+      </c>
+      <c r="E15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <v>157</v>
+      </c>
+      <c r="D17" s="2">
+        <v>188</v>
+      </c>
+      <c r="E17" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>195</v>
+      </c>
+      <c r="D22" s="2">
+        <v>212</v>
+      </c>
+      <c r="E22" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2">
+        <v>67</v>
+      </c>
+      <c r="E26" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>83</v>
+      </c>
+      <c r="D27" s="2">
+        <v>67</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>124</v>
+      </c>
+      <c r="D28" s="2">
+        <v>176</v>
+      </c>
+      <c r="E28" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>185</v>
+      </c>
+      <c r="D30" s="2">
+        <v>231</v>
+      </c>
+      <c r="E30" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>192</v>
+      </c>
+      <c r="D32" s="2">
+        <v>195</v>
+      </c>
+      <c r="E32" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2">
+        <v>116</v>
+      </c>
+      <c r="D33" s="2">
+        <v>96</v>
+      </c>
+      <c r="E33" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2">
+        <v>61</v>
+      </c>
+      <c r="E36" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2">
+        <v>285</v>
+      </c>
+      <c r="D37" s="2">
+        <v>173</v>
+      </c>
+      <c r="E37" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>194</v>
+      </c>
+      <c r="D39" s="2">
+        <v>127</v>
+      </c>
+      <c r="E39" s="2">
+        <v>199</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2">
+        <v>52</v>
+      </c>
+      <c r="D40" s="2">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2">
+        <v>22</v>
+      </c>
+      <c r="D41" s="2">
+        <v>27</v>
+      </c>
+      <c r="E41" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>74</v>
+      </c>
+      <c r="D42" s="2">
+        <v>117</v>
+      </c>
+      <c r="E42" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>84</v>
+      </c>
+      <c r="D46" s="2">
+        <v>104</v>
+      </c>
+      <c r="E46" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2">
+        <v>27</v>
+      </c>
+      <c r="D47" s="2">
+        <v>43</v>
+      </c>
+      <c r="E47" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="2">
+        <v>88</v>
+      </c>
+      <c r="D48" s="2">
+        <v>105</v>
+      </c>
+      <c r="E48" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2">
+        <v>52</v>
+      </c>
+      <c r="D49" s="2">
+        <v>58</v>
+      </c>
+      <c r="E49" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2">
+        <v>24</v>
+      </c>
+      <c r="E50" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>77</v>
+      </c>
+      <c r="D51" s="2">
+        <v>78</v>
+      </c>
+      <c r="E51" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2">
+        <v>59</v>
+      </c>
+      <c r="D52" s="2">
+        <v>96</v>
+      </c>
+      <c r="E52" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2">
+        <v>39</v>
+      </c>
+      <c r="D53" s="2">
+        <v>51</v>
+      </c>
+      <c r="E53" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2">
+        <v>18</v>
+      </c>
+      <c r="D54" s="2">
+        <v>26</v>
+      </c>
+      <c r="E54" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2">
+        <v>67</v>
+      </c>
+      <c r="D56" s="2">
+        <v>61</v>
+      </c>
+      <c r="E56" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2">
+        <v>78</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43</v>
+      </c>
+      <c r="E57" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>81</v>
+      </c>
+      <c r="D59" s="2">
+        <v>134</v>
+      </c>
+      <c r="E59" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="2">
+        <v>58</v>
+      </c>
+      <c r="D60" s="2">
+        <v>167</v>
+      </c>
+      <c r="E60" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>89</v>
+      </c>
+      <c r="D61" s="2">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2">
+        <v>87</v>
+      </c>
+      <c r="D62" s="2">
+        <v>89</v>
+      </c>
+      <c r="E62" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2">
+        <v>91</v>
+      </c>
+      <c r="D63" s="2">
+        <v>101</v>
+      </c>
+      <c r="E63" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="2">
+        <v>55</v>
+      </c>
+      <c r="D64" s="2">
+        <v>58</v>
+      </c>
+      <c r="E64" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2">
+        <v>84</v>
+      </c>
+      <c r="D65" s="2">
+        <v>78</v>
+      </c>
+      <c r="E65" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
+        <v>222</v>
+      </c>
+      <c r="D66" s="2">
+        <v>231</v>
+      </c>
+      <c r="E66" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="2">
+        <v>32</v>
+      </c>
+      <c r="D67" s="2">
+        <v>37</v>
+      </c>
+      <c r="E67" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2">
+        <v>66</v>
+      </c>
+      <c r="D68" s="2">
+        <v>146</v>
+      </c>
+      <c r="E68" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2">
+        <v>83</v>
+      </c>
+      <c r="D69" s="2">
+        <v>101</v>
+      </c>
+      <c r="E69" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="2">
+        <v>72</v>
+      </c>
+      <c r="D70" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="2">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41</v>
+      </c>
+      <c r="D72" s="2">
+        <v>37</v>
+      </c>
+      <c r="E72" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2">
+        <v>66</v>
+      </c>
+      <c r="D73" s="2">
+        <v>178</v>
+      </c>
+      <c r="E73" s="2">
+        <v>185</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2">
+        <v>142</v>
+      </c>
+      <c r="D74" s="2">
+        <v>71</v>
+      </c>
+      <c r="E74" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2">
+        <v>129</v>
+      </c>
+      <c r="D75" s="2">
+        <v>159</v>
+      </c>
+      <c r="E75" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>194</v>
+      </c>
+      <c r="D76" s="2">
+        <v>233</v>
+      </c>
+      <c r="E76" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="2">
+        <v>32</v>
+      </c>
+      <c r="D77" s="2">
+        <v>35</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="2">
+        <v>43</v>
+      </c>
+      <c r="D78" s="2">
+        <v>47</v>
+      </c>
+      <c r="E78" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2">
+        <v>32</v>
+      </c>
+      <c r="D79" s="2">
+        <v>22</v>
+      </c>
+      <c r="E79" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="2">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2">
+        <v>15</v>
+      </c>
+      <c r="E80" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="2">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2">
+        <v>25</v>
+      </c>
+      <c r="E82" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2">
+        <v>101</v>
+      </c>
+      <c r="D83" s="2">
+        <v>60</v>
+      </c>
+      <c r="E83" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2">
+        <v>39</v>
+      </c>
+      <c r="D84" s="2">
+        <v>74</v>
+      </c>
+      <c r="E84" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2">
+        <v>35</v>
+      </c>
+      <c r="D85" s="2">
+        <v>62</v>
+      </c>
+      <c r="E85" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="2">
+        <v>42</v>
+      </c>
+      <c r="D86" s="2">
+        <v>55</v>
+      </c>
+      <c r="E86" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2">
+        <v>22</v>
+      </c>
+      <c r="D87" s="2">
+        <v>28</v>
+      </c>
+      <c r="E87" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="2">
+        <v>33</v>
+      </c>
+      <c r="D88" s="2">
+        <v>36</v>
+      </c>
+      <c r="E88" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="2">
+        <v>34</v>
+      </c>
+      <c r="D89" s="2">
+        <v>42</v>
+      </c>
+      <c r="E89" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2">
+        <v>34</v>
+      </c>
+      <c r="E90" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="2">
+        <v>66</v>
+      </c>
+      <c r="D91" s="2">
+        <v>97</v>
+      </c>
+      <c r="E91" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="2">
+        <v>69</v>
+      </c>
+      <c r="D92" s="2">
+        <v>101</v>
+      </c>
+      <c r="E92" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="2">
+        <v>59</v>
+      </c>
+      <c r="D93" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="2">
+        <v>81</v>
+      </c>
+      <c r="D94" s="2">
+        <v>113</v>
+      </c>
+      <c r="E94" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="2">
+        <v>123</v>
+      </c>
+      <c r="D95" s="2">
+        <v>129</v>
+      </c>
+      <c r="E95" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="2">
+        <v>69</v>
+      </c>
+      <c r="D96" s="2">
+        <v>71</v>
+      </c>
+      <c r="E96" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="2">
+        <v>43</v>
+      </c>
+      <c r="D97" s="2">
+        <v>68</v>
+      </c>
+      <c r="E97" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="2">
+        <v>138</v>
+      </c>
+      <c r="D98" s="2">
+        <v>154</v>
+      </c>
+      <c r="E98" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="2">
+        <v>41</v>
+      </c>
+      <c r="D99" s="2">
+        <v>58</v>
+      </c>
+      <c r="E99" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="2">
+        <v>19</v>
+      </c>
+      <c r="D100" s="2">
+        <v>23</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="2">
+        <v>62</v>
+      </c>
+      <c r="D101" s="2">
+        <v>66</v>
+      </c>
+      <c r="E101" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="2">
+        <v>37</v>
+      </c>
+      <c r="D102" s="2">
+        <v>42</v>
+      </c>
+      <c r="E102" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="2">
+        <v>19</v>
+      </c>
+      <c r="D103" s="2">
+        <v>44</v>
+      </c>
+      <c r="E103" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="2">
+        <v>36</v>
+      </c>
+      <c r="D104" s="2">
+        <v>48</v>
+      </c>
+      <c r="E104" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="2">
+        <v>63</v>
+      </c>
+      <c r="D105" s="2">
+        <v>53</v>
+      </c>
+      <c r="E105" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="2">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2">
+        <v>14</v>
+      </c>
+      <c r="E106" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="2">
+        <v>62</v>
+      </c>
+      <c r="D107" s="2">
+        <v>72</v>
+      </c>
+      <c r="E107" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="2">
+        <v>52</v>
+      </c>
+      <c r="D108" s="2">
+        <v>46</v>
+      </c>
+      <c r="E108" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="2">
+        <v>48</v>
+      </c>
+      <c r="D109" s="2">
+        <v>73</v>
+      </c>
+      <c r="E109" s="2">
+        <v>62</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="2">
+        <v>113</v>
+      </c>
+      <c r="D110" s="2">
+        <v>157</v>
+      </c>
+      <c r="E110" s="2">
+        <v>152</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="2">
+        <v>315</v>
+      </c>
+      <c r="D111" s="2">
+        <v>501</v>
+      </c>
+      <c r="E111" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="2">
+        <v>176</v>
+      </c>
+      <c r="D112" s="2">
+        <v>221</v>
+      </c>
+      <c r="E112" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="2">
+        <v>314</v>
+      </c>
+      <c r="D113" s="2">
+        <v>324</v>
+      </c>
+      <c r="E113" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="2">
+        <v>171</v>
+      </c>
+      <c r="D114" s="2">
+        <v>122</v>
+      </c>
+      <c r="E114" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="2">
+        <v>142</v>
+      </c>
+      <c r="D115" s="2">
+        <v>236</v>
+      </c>
+      <c r="E115" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2">
+        <v>263</v>
+      </c>
+      <c r="D116" s="2">
+        <v>234</v>
+      </c>
+      <c r="E116" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2">
+        <v>43</v>
+      </c>
+      <c r="D117" s="2">
+        <v>44</v>
+      </c>
+      <c r="E117" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2">
+        <v>91</v>
+      </c>
+      <c r="D118" s="2">
+        <v>271</v>
+      </c>
+      <c r="E118" s="2">
+        <v>82</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2">
+        <v>36</v>
+      </c>
+      <c r="D119" s="2">
+        <v>38</v>
+      </c>
+      <c r="E119" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2">
+        <v>36</v>
+      </c>
+      <c r="D120" s="2">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>192</v>
+      </c>
+      <c r="D6" s="2">
+        <v>142</v>
+      </c>
+      <c r="E6" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>205</v>
+      </c>
+      <c r="D7" s="2">
+        <v>322</v>
+      </c>
+      <c r="E7" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>192</v>
+      </c>
+      <c r="D8" s="2">
+        <v>310</v>
+      </c>
+      <c r="E8" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>105</v>
+      </c>
+      <c r="D9" s="2">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>185</v>
+      </c>
+      <c r="D11" s="2">
+        <v>177</v>
+      </c>
+      <c r="E11" s="2">
+        <v>175</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>145</v>
+      </c>
+      <c r="D12" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2">
+        <v>92</v>
+      </c>
+      <c r="E14" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>82</v>
+      </c>
+      <c r="D16" s="2">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>372</v>
+      </c>
+      <c r="D17" s="2">
+        <v>552</v>
+      </c>
+      <c r="E17" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2">
+        <v>342</v>
+      </c>
+      <c r="D18" s="2">
+        <v>510</v>
+      </c>
+      <c r="E18" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>110</v>
+      </c>
+      <c r="D20" s="2">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2">
+        <v>105</v>
+      </c>
+      <c r="E21" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2">
+        <v>105</v>
+      </c>
+      <c r="E22" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>232</v>
+      </c>
+      <c r="D25" s="2">
+        <v>213</v>
+      </c>
+      <c r="E25" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2">
+        <v>132</v>
+      </c>
+      <c r="D27" s="2">
+        <v>110</v>
+      </c>
+      <c r="E27" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>195</v>
+      </c>
+      <c r="D28" s="2">
+        <v>155</v>
+      </c>
+      <c r="E28" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>112</v>
+      </c>
+      <c r="D29" s="2">
+        <v>132</v>
+      </c>
+      <c r="E29" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>116</v>
+      </c>
+      <c r="D30" s="2">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>82</v>
+      </c>
+      <c r="D31" s="2">
+        <v>85</v>
+      </c>
+      <c r="E31" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>116</v>
+      </c>
+      <c r="D32" s="2">
+        <v>225</v>
+      </c>
+      <c r="E32" s="2">
+        <v>225</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>210</v>
+      </c>
+      <c r="D34" s="2">
+        <v>222</v>
+      </c>
+      <c r="E34" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2">
+        <v>103</v>
+      </c>
+      <c r="D35" s="2">
+        <v>122</v>
+      </c>
+      <c r="E35" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2">
+        <v>79</v>
+      </c>
+      <c r="D36" s="2">
+        <v>72</v>
+      </c>
+      <c r="E36" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>62</v>
+      </c>
+      <c r="D38" s="2">
+        <v>61</v>
+      </c>
+      <c r="E38" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="2">
+        <v>102</v>
+      </c>
+      <c r="D39" s="2">
+        <v>105</v>
+      </c>
+      <c r="E39" s="2">
+        <v>105</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2">
+        <v>95</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2">
+        <v>114</v>
+      </c>
+      <c r="D41" s="2">
+        <v>152</v>
+      </c>
+      <c r="E41" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2">
+        <v>85</v>
+      </c>
+      <c r="D42" s="2">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2">
+        <v>95</v>
+      </c>
+      <c r="D43" s="2">
+        <v>132</v>
+      </c>
+      <c r="E43" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2">
+        <v>82</v>
+      </c>
+      <c r="D44" s="2">
+        <v>92</v>
+      </c>
+      <c r="E44" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2">
+        <v>198</v>
+      </c>
+      <c r="E45" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>102</v>
+      </c>
+      <c r="D46" s="2">
+        <v>142</v>
+      </c>
+      <c r="E46" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2">
+        <v>182</v>
+      </c>
+      <c r="D47" s="2">
+        <v>125</v>
+      </c>
+      <c r="E47" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2">
+        <v>122</v>
+      </c>
+      <c r="D48" s="2">
+        <v>139</v>
+      </c>
+      <c r="E48" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>66</v>
+      </c>
+      <c r="D49" s="2">
+        <v>86</v>
+      </c>
+      <c r="E49" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="2">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2">
+        <v>28</v>
+      </c>
+      <c r="E50" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>149</v>
+      </c>
+      <c r="D51" s="2">
+        <v>151</v>
+      </c>
+      <c r="E51" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>59</v>
+      </c>
+      <c r="D52" s="2">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>182</v>
+      </c>
+      <c r="D53" s="2">
+        <v>192</v>
+      </c>
+      <c r="E53" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>138</v>
+      </c>
+      <c r="D54" s="2">
+        <v>135</v>
+      </c>
+      <c r="E54" s="2">
+        <v>199</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>107</v>
+      </c>
+      <c r="D55" s="2">
+        <v>88</v>
+      </c>
+      <c r="E55" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>112</v>
+      </c>
+      <c r="D56" s="2">
+        <v>172</v>
+      </c>
+      <c r="E56" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2">
+        <v>85</v>
+      </c>
+      <c r="D57" s="2">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="2">
+        <v>125</v>
+      </c>
+      <c r="D58" s="2">
+        <v>153</v>
+      </c>
+      <c r="E58" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>116</v>
+      </c>
+      <c r="D59" s="2">
+        <v>172</v>
+      </c>
+      <c r="E59" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="2">
+        <v>42</v>
+      </c>
+      <c r="D60" s="2">
+        <v>35</v>
+      </c>
+      <c r="E60" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="2">
+        <v>28</v>
+      </c>
+      <c r="D61" s="2">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>182</v>
+      </c>
+      <c r="D62" s="2">
+        <v>232</v>
+      </c>
+      <c r="E62" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="2">
+        <v>172</v>
+      </c>
+      <c r="D63" s="2">
+        <v>85</v>
+      </c>
+      <c r="E63" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="2">
+        <v>132</v>
+      </c>
+      <c r="D64" s="2">
+        <v>129</v>
+      </c>
+      <c r="E64" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2">
+        <v>123</v>
+      </c>
+      <c r="D65" s="2">
+        <v>189</v>
+      </c>
+      <c r="E65" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="2">
+        <v>94</v>
+      </c>
+      <c r="D66" s="2">
+        <v>49</v>
+      </c>
+      <c r="E66" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="2">
+        <v>55</v>
+      </c>
+      <c r="D67" s="2">
+        <v>32</v>
+      </c>
+      <c r="E67" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>122</v>
+      </c>
+      <c r="D68" s="2">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2">
+        <v>142</v>
+      </c>
+      <c r="D69" s="2">
+        <v>132</v>
+      </c>
+      <c r="E69" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>129</v>
+      </c>
+      <c r="D70" s="2">
+        <v>123</v>
+      </c>
+      <c r="E70" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2">
+        <v>42</v>
+      </c>
+      <c r="E71" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="2">
+        <v>122</v>
+      </c>
+      <c r="D72" s="2">
+        <v>42</v>
+      </c>
+      <c r="E72" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2">
+        <v>85</v>
+      </c>
+      <c r="D73" s="2">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2">
+        <v>95</v>
+      </c>
+      <c r="D74" s="2">
+        <v>42</v>
+      </c>
+      <c r="E74" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2">
+        <v>82</v>
+      </c>
+      <c r="D75" s="2">
+        <v>82</v>
+      </c>
+      <c r="E75" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2">
+        <v>52</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45</v>
+      </c>
+      <c r="E76" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2">
+        <v>69</v>
+      </c>
+      <c r="D77" s="2">
+        <v>85</v>
+      </c>
+      <c r="E77" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2">
+        <v>142</v>
+      </c>
+      <c r="D78" s="2">
+        <v>209</v>
+      </c>
+      <c r="E78" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>110</v>
+      </c>
+      <c r="D79" s="2">
+        <v>155</v>
+      </c>
+      <c r="E79" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2">
+        <v>199</v>
+      </c>
+      <c r="D80" s="2">
+        <v>162</v>
+      </c>
+      <c r="E80" s="2">
+        <v>205</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2">
+        <v>185</v>
+      </c>
+      <c r="D81" s="2">
+        <v>116</v>
+      </c>
+      <c r="E81" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="2">
+        <v>65</v>
+      </c>
+      <c r="D82" s="2">
+        <v>57</v>
+      </c>
+      <c r="E82" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="2">
+        <v>122</v>
+      </c>
+      <c r="D83" s="2">
+        <v>135</v>
+      </c>
+      <c r="E83" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="2">
+        <v>51</v>
+      </c>
+      <c r="D84" s="2">
+        <v>42</v>
+      </c>
+      <c r="E84" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="2">
+        <v>110</v>
+      </c>
+      <c r="D85" s="2">
+        <v>99</v>
+      </c>
+      <c r="E85" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="2">
+        <v>79</v>
+      </c>
+      <c r="D86" s="2">
+        <v>86</v>
+      </c>
+      <c r="E86" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="2">
+        <v>43</v>
+      </c>
+      <c r="D87" s="2">
+        <v>52</v>
+      </c>
+      <c r="E87" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2">
+        <v>207</v>
+      </c>
+      <c r="D88" s="2">
+        <v>232</v>
+      </c>
+      <c r="E88" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2">
+        <v>107</v>
+      </c>
+      <c r="D89" s="2">
+        <v>147</v>
+      </c>
+      <c r="E89" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="2">
+        <v>358</v>
+      </c>
+      <c r="D90" s="2">
+        <v>333</v>
+      </c>
+      <c r="E90" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2">
+        <v>181</v>
+      </c>
+      <c r="D91" s="2">
+        <v>362</v>
+      </c>
+      <c r="E91" s="2">
+        <v>208</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2">
+        <v>118</v>
+      </c>
+      <c r="D92" s="2">
+        <v>92</v>
+      </c>
+      <c r="E92" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2">
+        <v>46</v>
+      </c>
+      <c r="D93" s="2">
+        <v>32</v>
+      </c>
+      <c r="E93" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2">
+        <v>187</v>
+      </c>
+      <c r="D94" s="2">
+        <v>162</v>
+      </c>
+      <c r="E94" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45</v>
+      </c>
+      <c r="D95" s="2">
+        <v>42</v>
+      </c>
+      <c r="E95" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="2">
+        <v>11</v>
+      </c>
+      <c r="D96" s="2">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="2">
+        <v>19</v>
+      </c>
+      <c r="D97" s="2">
+        <v>25</v>
+      </c>
+      <c r="E97" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="2">
+        <v>35</v>
+      </c>
+      <c r="D98" s="2">
+        <v>54</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="2">
+        <v>51</v>
+      </c>
+      <c r="D99" s="2">
+        <v>54</v>
+      </c>
+      <c r="E99" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="2">
+        <v>164</v>
+      </c>
+      <c r="D100" s="2">
+        <v>146</v>
+      </c>
+      <c r="E100" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="2">
+        <v>157</v>
+      </c>
+      <c r="D101" s="2">
+        <v>160</v>
+      </c>
+      <c r="E101" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2">
+        <v>126</v>
+      </c>
+      <c r="D102" s="2">
+        <v>112</v>
+      </c>
+      <c r="E102" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="2">
+        <v>39</v>
+      </c>
+      <c r="D103" s="2">
+        <v>44</v>
+      </c>
+      <c r="E103" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="2">
+        <v>115</v>
+      </c>
+      <c r="D104" s="2">
+        <v>79</v>
+      </c>
+      <c r="E104" s="2">
+        <v>85</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" s="2">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2">
+        <v>9</v>
+      </c>
+      <c r="E105" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="2">
+        <v>98</v>
+      </c>
+      <c r="D106" s="2">
+        <v>89</v>
+      </c>
+      <c r="E106" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="2">
+        <v>73</v>
+      </c>
+      <c r="D107" s="2">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="2">
+        <v>222</v>
+      </c>
+      <c r="D108" s="2">
+        <v>125</v>
+      </c>
+      <c r="E108" s="2">
+        <v>291</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5080,21 +5868,11 @@
         <v>37</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -5114,21 +5892,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -5143,18 +5911,6 @@
       <c r="E6">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6">
-        <v>87</v>
-      </c>
-      <c r="J6">
-        <v>134</v>
-      </c>
-      <c r="K6">
-        <v>62</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -5169,18 +5925,6 @@
       <c r="E7">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7">
-        <v>89</v>
-      </c>
-      <c r="J7">
-        <v>107</v>
-      </c>
-      <c r="K7">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -5195,18 +5939,6 @@
       <c r="E8">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8">
-        <v>41</v>
-      </c>
-      <c r="J8">
-        <v>82</v>
-      </c>
-      <c r="K8">
-        <v>58</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -5221,18 +5953,6 @@
       <c r="E9">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9">
-        <v>53</v>
-      </c>
-      <c r="J9">
-        <v>67</v>
-      </c>
-      <c r="K9">
-        <v>53</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -5247,18 +5967,6 @@
       <c r="E10">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10">
-        <v>48</v>
-      </c>
-      <c r="J10">
-        <v>89</v>
-      </c>
-      <c r="K10">
-        <v>26</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -5273,18 +5981,6 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11">
-        <v>29</v>
-      </c>
-      <c r="J11">
-        <v>53</v>
-      </c>
-      <c r="K11">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -5299,18 +5995,6 @@
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <v>62</v>
-      </c>
-      <c r="J12">
-        <v>99</v>
-      </c>
-      <c r="K12">
-        <v>42</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -5324,18 +6008,6 @@
       </c>
       <c r="E13">
         <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13">
-        <v>55</v>
-      </c>
-      <c r="J13">
-        <v>92</v>
-      </c>
-      <c r="K13">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5351,18 +6023,6 @@
       <c r="E14">
         <v>57</v>
       </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14">
-        <v>55</v>
-      </c>
-      <c r="J14">
-        <v>67</v>
-      </c>
-      <c r="K14">
-        <v>39</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -5377,18 +6037,6 @@
       <c r="E15">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15">
-        <v>76</v>
-      </c>
-      <c r="J15">
-        <v>105</v>
-      </c>
-      <c r="K15">
-        <v>63</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -5403,20 +6051,8 @@
       <c r="E16">
         <v>27</v>
       </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16">
-        <v>59</v>
-      </c>
-      <c r="J16">
-        <v>81</v>
-      </c>
-      <c r="K16">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>50</v>
       </c>
@@ -5429,20 +6065,8 @@
       <c r="E17">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17">
-        <v>25</v>
-      </c>
-      <c r="J17">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -5455,20 +6079,8 @@
       <c r="E18">
         <v>16</v>
       </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18">
-        <v>86</v>
-      </c>
-      <c r="J18">
-        <v>64</v>
-      </c>
-      <c r="K18">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>50</v>
       </c>
@@ -5481,20 +6093,8 @@
       <c r="E19">
         <v>42</v>
       </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19">
-        <v>74</v>
-      </c>
-      <c r="J19">
-        <v>94</v>
-      </c>
-      <c r="K19">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>50</v>
       </c>
@@ -5507,20 +6107,8 @@
       <c r="E20">
         <v>24</v>
       </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20">
-        <v>118</v>
-      </c>
-      <c r="J20">
-        <v>119</v>
-      </c>
-      <c r="K20">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -5533,20 +6121,8 @@
       <c r="E21">
         <v>25</v>
       </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21">
-        <v>103</v>
-      </c>
-      <c r="J21">
-        <v>141</v>
-      </c>
-      <c r="K21">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -5559,20 +6135,8 @@
       <c r="E22">
         <v>61</v>
       </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22">
-        <v>87</v>
-      </c>
-      <c r="J22">
-        <v>134</v>
-      </c>
-      <c r="K22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>50</v>
       </c>
@@ -5585,20 +6149,8 @@
       <c r="E23">
         <v>49</v>
       </c>
-      <c r="H23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23">
-        <v>52</v>
-      </c>
-      <c r="J23">
-        <v>97</v>
-      </c>
-      <c r="K23">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -5611,20 +6163,8 @@
       <c r="E24">
         <v>262</v>
       </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24">
-        <v>83</v>
-      </c>
-      <c r="J24">
-        <v>112</v>
-      </c>
-      <c r="K24">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>50</v>
       </c>
@@ -5638,7 +6178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>50</v>
       </c>
@@ -5652,7 +6192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -5666,7 +6206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -5680,7 +6220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -5694,7 +6234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>50</v>
       </c>
@@ -5708,7 +6248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>50</v>
       </c>
@@ -5722,7 +6262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>50</v>
       </c>
@@ -7064,6 +7604,379 @@
       </c>
       <c r="E127">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>134</v>
+      </c>
+      <c r="E6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>107</v>
+      </c>
+      <c r="E7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>89</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>76</v>
+      </c>
+      <c r="D15">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>64</v>
+      </c>
+      <c r="E18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>118</v>
+      </c>
+      <c r="D20">
+        <v>119</v>
+      </c>
+      <c r="E20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>103</v>
+      </c>
+      <c r="D21">
+        <v>141</v>
+      </c>
+      <c r="E21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>134</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>97</v>
+      </c>
+      <c r="E23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>83</v>
+      </c>
+      <c r="D24">
+        <v>112</v>
+      </c>
+      <c r="E24">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Data/GEF Field Trial/GEF_Woody canopy_2017.10.16_Mdoda.xlsx
+++ b/Data/GEF Field Trial/GEF_Woody canopy_2017.10.16_Mdoda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INT-01" sheetId="10" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,7 +4169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5788,7 +5788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:L24"/>
     </sheetView>
   </sheetViews>
@@ -7615,8 +7615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/GEF Field Trial/GEF_Woody canopy_2017.10.16_Mdoda.xlsx
+++ b/Data/GEF Field Trial/GEF_Woody canopy_2017.10.16_Mdoda.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="54">
   <si>
     <t>Plot No:</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>edge</t>
-  </si>
-  <si>
-    <t>L. ferrocissimum</t>
   </si>
   <si>
     <t>32?</t>
@@ -189,7 +186,10 @@
     <t>Asparagus capensis</t>
   </si>
   <si>
-    <t>ovata</t>
+    <t>L. ferocissimum</t>
+  </si>
+  <si>
+    <t>A. capensis</t>
   </si>
 </sst>
 </file>
@@ -306,74 +306,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +602,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -679,10 +611,10 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -690,7 +622,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -730,16 +662,16 @@
     <row r="5" spans="1:18" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>1</v>
@@ -881,7 +813,7 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6">
         <v>27</v>
@@ -1016,7 +948,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="6">
         <v>36</v>
@@ -1031,7 +963,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -1046,7 +978,7 @@
     </row>
     <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6">
         <v>17</v>
@@ -1125,7 +1057,7 @@
     </row>
     <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="6">
         <v>15</v>
@@ -1140,7 +1072,7 @@
     </row>
     <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
@@ -1155,7 +1087,7 @@
     </row>
     <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="6">
         <v>10</v>
@@ -1170,7 +1102,7 @@
     </row>
     <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="6">
         <v>20</v>
@@ -1185,7 +1117,7 @@
     </row>
     <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="6">
         <v>29</v>
@@ -1200,7 +1132,7 @@
     </row>
     <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="6">
         <v>17</v>
@@ -1532,7 +1464,7 @@
     </row>
     <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="6">
         <v>92</v>
@@ -1547,7 +1479,7 @@
     </row>
     <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" s="6">
         <v>37</v>
@@ -2087,7 +2019,7 @@
     </row>
     <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94" s="6">
         <v>6</v>
@@ -2102,7 +2034,7 @@
     </row>
     <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" s="6">
         <v>6</v>
@@ -2117,7 +2049,7 @@
     </row>
     <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" s="6">
         <v>4</v>
@@ -2380,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2332,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2409,10 +2341,10 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2420,7 +2352,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2454,16 +2386,16 @@
     <row r="5" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>1</v>
@@ -2578,7 +2510,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>119</v>
@@ -2592,7 +2524,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>79</v>
@@ -2662,7 +2594,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <v>74</v>
@@ -2676,7 +2608,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <v>22</v>
@@ -2718,7 +2650,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
         <v>31</v>
@@ -2732,7 +2664,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
         <v>42</v>
@@ -2746,7 +2678,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
         <v>42</v>
@@ -2760,7 +2692,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>61</v>
@@ -2816,7 +2748,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2">
         <v>185</v>
@@ -2830,7 +2762,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
         <v>69</v>
@@ -2886,7 +2818,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2">
         <v>26</v>
@@ -2900,7 +2832,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2">
         <v>67</v>
@@ -2928,7 +2860,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2">
         <v>82</v>
@@ -2959,7 +2891,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2">
         <v>52</v>
@@ -2973,7 +2905,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2">
         <v>22</v>
@@ -2987,7 +2919,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2">
         <v>74</v>
@@ -3001,7 +2933,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2">
         <v>15</v>
@@ -3015,7 +2947,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="2">
         <v>32</v>
@@ -3029,7 +2961,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="2">
         <v>8</v>
@@ -3057,7 +2989,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2">
         <v>27</v>
@@ -3071,7 +3003,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2">
         <v>88</v>
@@ -3085,7 +3017,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2">
         <v>52</v>
@@ -3099,7 +3031,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="2">
         <v>15</v>
@@ -3113,7 +3045,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="2">
         <v>77</v>
@@ -3127,7 +3059,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2">
         <v>59</v>
@@ -3141,7 +3073,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2">
         <v>39</v>
@@ -3155,7 +3087,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2">
         <v>18</v>
@@ -3169,7 +3101,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2">
         <v>16</v>
@@ -3239,7 +3171,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" s="2">
         <v>58</v>
@@ -3267,7 +3199,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62" s="2">
         <v>87</v>
@@ -3281,7 +3213,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" s="2">
         <v>91</v>
@@ -3295,7 +3227,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="2">
         <v>55</v>
@@ -3309,7 +3241,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="2">
         <v>84</v>
@@ -3337,7 +3269,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" s="2">
         <v>32</v>
@@ -3379,7 +3311,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" s="2">
         <v>72</v>
@@ -3393,7 +3325,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="2">
         <v>11</v>
@@ -3480,7 +3412,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="2">
         <v>32</v>
@@ -3494,7 +3426,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" s="2">
         <v>43</v>
@@ -3508,7 +3440,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="2">
         <v>32</v>
@@ -3522,7 +3454,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" s="2">
         <v>10</v>
@@ -3534,7 +3466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>3</v>
       </c>
@@ -3548,9 +3480,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" s="2">
         <v>23</v>
@@ -3562,7 +3494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>3</v>
       </c>
@@ -3576,7 +3508,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>3</v>
       </c>
@@ -3590,7 +3522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>3</v>
       </c>
@@ -3604,9 +3536,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" s="2">
         <v>42</v>
@@ -3618,9 +3550,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" s="2">
         <v>22</v>
@@ -3632,9 +3564,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" s="2">
         <v>33</v>
@@ -3646,9 +3578,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="2">
         <v>34</v>
@@ -3660,12 +3592,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="C90" s="2">
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>34</v>
@@ -3673,10 +3605,13 @@
       <c r="E90" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G90" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" s="2">
         <v>66</v>
@@ -3688,9 +3623,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92" s="2">
         <v>69</v>
@@ -3702,9 +3637,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93" s="2">
         <v>59</v>
@@ -3716,9 +3651,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2">
         <v>81</v>
@@ -3730,9 +3665,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2">
         <v>123</v>
@@ -3744,9 +3679,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" s="2">
         <v>69</v>
@@ -3760,7 +3695,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97" s="2">
         <v>43</v>
@@ -3774,7 +3709,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2">
         <v>138</v>
@@ -3788,7 +3723,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99" s="2">
         <v>41</v>
@@ -3802,7 +3737,7 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C100" s="2">
         <v>19</v>
@@ -3816,7 +3751,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C101" s="2">
         <v>62</v>
@@ -3830,7 +3765,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C102" s="2">
         <v>37</v>
@@ -3844,7 +3779,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" s="2">
         <v>19</v>
@@ -3858,7 +3793,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C104" s="2">
         <v>36</v>
@@ -3886,7 +3821,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106" s="2">
         <v>12</v>
@@ -3914,7 +3849,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" s="2">
         <v>52</v>
@@ -3928,7 +3863,7 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C109" s="2">
         <v>48</v>
@@ -3976,7 +3911,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2">
         <v>176</v>
@@ -4018,7 +3953,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C115" s="2">
         <v>142</v>
@@ -4169,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,7 +4124,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4198,10 +4133,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4209,7 +4144,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4220,34 +4155,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>1</v>
@@ -4311,7 +4246,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>145</v>
@@ -4337,12 +4272,12 @@
         <v>175</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
         <v>145</v>
@@ -4356,7 +4291,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>37</v>
@@ -4384,7 +4319,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>19</v>
@@ -4398,7 +4333,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>82</v>
@@ -4426,7 +4361,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
         <v>342</v>
@@ -4440,7 +4375,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <v>90</v>
@@ -4552,7 +4487,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2">
         <v>132</v>
@@ -4634,7 +4569,7 @@
         <v>225</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -4667,7 +4602,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
         <v>103</v>
@@ -4723,7 +4658,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
         <v>102</v>
@@ -4735,12 +4670,12 @@
         <v>105</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2">
         <v>53</v>
@@ -4752,12 +4687,12 @@
         <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>114</v>
@@ -4771,7 +4706,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2">
         <v>85</v>
@@ -4785,7 +4720,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2">
         <v>95</v>
@@ -4799,7 +4734,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2">
         <v>82</v>
@@ -4841,7 +4776,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2">
         <v>182</v>
@@ -4855,7 +4790,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2">
         <v>122</v>
@@ -4883,7 +4818,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2">
         <v>15</v>
@@ -4951,7 +4886,7 @@
         <v>199</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -4984,7 +4919,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2">
         <v>85</v>
@@ -4998,7 +4933,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2">
         <v>125</v>
@@ -5026,7 +4961,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2">
         <v>42</v>
@@ -5040,7 +4975,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2">
         <v>28</v>
@@ -5068,7 +5003,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2">
         <v>172</v>
@@ -5082,7 +5017,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2">
         <v>132</v>
@@ -5110,7 +5045,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66" s="2">
         <v>94</v>
@@ -5124,7 +5059,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2">
         <v>55</v>
@@ -5194,7 +5129,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="2">
         <v>122</v>
@@ -5318,7 +5253,7 @@
         <v>205</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
@@ -5337,7 +5272,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" s="2">
         <v>65</v>
@@ -5351,7 +5286,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="2">
         <v>122</v>
@@ -5365,7 +5300,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84" s="2">
         <v>51</v>
@@ -5393,7 +5328,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" s="2">
         <v>79</v>
@@ -5407,7 +5342,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2">
         <v>43</v>
@@ -5522,7 +5457,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" s="2">
         <v>45</v>
@@ -5536,7 +5471,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" s="2">
         <v>11</v>
@@ -5550,7 +5485,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97" s="2">
         <v>19</v>
@@ -5564,7 +5499,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98" s="2">
         <v>35</v>
@@ -5578,7 +5513,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99" s="2">
         <v>51</v>
@@ -5634,7 +5569,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" s="2">
         <v>39</v>
@@ -5665,7 +5600,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2">
         <v>9</v>
@@ -5679,7 +5614,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2">
         <v>98</v>
@@ -5719,7 +5654,7 @@
         <v>291</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5788,8 +5723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L24"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5800,7 +5735,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -5816,10 +5751,10 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
@@ -5834,7 +5769,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5853,19 +5788,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="5"/>
@@ -5877,16 +5812,16 @@
     <row r="5" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>1</v>
@@ -5900,7 +5835,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -5914,7 +5849,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -5928,7 +5863,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>43</v>
@@ -5942,7 +5877,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>29</v>
@@ -5956,7 +5891,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -5970,7 +5905,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5984,7 +5919,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -5998,7 +5933,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>81</v>
@@ -6012,7 +5947,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>64</v>
@@ -6026,7 +5961,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -6040,7 +5975,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>27</v>
@@ -6054,7 +5989,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -6068,7 +6003,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>19</v>
@@ -6082,7 +6017,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>55</v>
@@ -6096,7 +6031,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -6110,7 +6045,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>25</v>
@@ -6124,7 +6059,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>56</v>
@@ -6138,7 +6073,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>49</v>
@@ -6166,7 +6101,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>17</v>
@@ -6180,7 +6115,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -6194,7 +6129,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>104</v>
@@ -6208,7 +6143,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -6222,7 +6157,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>29</v>
@@ -6236,7 +6171,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -6250,7 +6185,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -6264,7 +6199,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>14</v>
@@ -6278,7 +6213,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>14</v>
@@ -6292,7 +6227,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>14</v>
@@ -6306,7 +6241,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -6320,7 +6255,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -6334,7 +6269,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>103</v>
@@ -6348,7 +6283,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -6362,7 +6297,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>15</v>
@@ -6376,7 +6311,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -6390,7 +6325,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>12</v>
@@ -6404,7 +6339,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -6418,12 +6353,12 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>72</v>
@@ -6437,7 +6372,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>26</v>
@@ -6451,7 +6386,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>42</v>
@@ -6465,7 +6400,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -6479,7 +6414,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>84</v>
@@ -6493,7 +6428,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>28</v>
@@ -6507,7 +6442,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -6521,7 +6456,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6535,7 +6470,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>24</v>
@@ -6549,7 +6484,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C53">
         <v>105</v>
@@ -6561,12 +6496,12 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54">
         <v>22</v>
@@ -6580,7 +6515,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55">
         <v>16</v>
@@ -6594,7 +6529,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56">
         <v>31</v>
@@ -6608,7 +6543,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -6622,7 +6557,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -6636,7 +6571,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59">
         <v>28</v>
@@ -6650,7 +6585,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60">
         <v>25</v>
@@ -6664,7 +6599,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -6678,7 +6613,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62">
         <v>23</v>
@@ -6692,7 +6627,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63">
         <v>17</v>
@@ -6706,7 +6641,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -6720,7 +6655,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65">
         <v>27</v>
@@ -6734,7 +6669,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66">
         <v>34</v>
@@ -6748,7 +6683,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67">
         <v>52</v>
@@ -6762,7 +6697,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68">
         <v>23</v>
@@ -6776,7 +6711,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69">
         <v>26</v>
@@ -6790,7 +6725,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70">
         <v>31</v>
@@ -6804,7 +6739,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71">
         <v>28</v>
@@ -6818,7 +6753,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>29</v>
@@ -6832,7 +6767,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73">
         <v>54</v>
@@ -6846,7 +6781,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74">
         <v>21</v>
@@ -6860,7 +6795,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75">
         <v>11</v>
@@ -6874,7 +6809,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76">
         <v>30</v>
@@ -6888,7 +6823,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -6902,7 +6837,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78">
         <v>36</v>
@@ -6916,7 +6851,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79">
         <v>31</v>
@@ -6930,7 +6865,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80">
         <v>13</v>
@@ -6942,9 +6877,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81">
         <v>36</v>
@@ -6959,9 +6894,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C82">
         <v>77</v>
@@ -6976,9 +6911,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83">
         <v>14</v>
@@ -6990,9 +6925,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -7004,9 +6939,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85">
         <v>18</v>
@@ -7018,9 +6953,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -7032,9 +6967,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87">
         <v>15</v>
@@ -7046,9 +6981,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C88">
         <v>43</v>
@@ -7059,10 +6994,13 @@
       <c r="E88">
         <v>61</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89">
         <v>21</v>
@@ -7074,9 +7012,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90">
         <v>22</v>
@@ -7088,9 +7026,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91">
         <v>28</v>
@@ -7102,9 +7040,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92">
         <v>8</v>
@@ -7116,9 +7054,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93">
         <v>16</v>
@@ -7130,9 +7068,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94">
         <v>42</v>
@@ -7144,9 +7082,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C95">
         <v>12</v>
@@ -7158,9 +7096,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -7174,7 +7112,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97">
         <v>27</v>
@@ -7188,7 +7126,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -7202,7 +7140,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C99">
         <v>71</v>
@@ -7216,7 +7154,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C100">
         <v>48</v>
@@ -7230,7 +7168,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -7244,7 +7182,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C102">
         <v>91</v>
@@ -7258,7 +7196,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C103">
         <v>81</v>
@@ -7272,7 +7210,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C104">
         <v>21</v>
@@ -7286,7 +7224,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C105">
         <v>38</v>
@@ -7300,7 +7238,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106">
         <v>20</v>
@@ -7314,7 +7252,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C107">
         <v>27</v>
@@ -7328,7 +7266,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C108">
         <v>17</v>
@@ -7342,7 +7280,7 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C109">
         <v>6</v>
@@ -7356,7 +7294,7 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C110">
         <v>7</v>
@@ -7370,7 +7308,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -7384,7 +7322,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C112">
         <v>7</v>
@@ -7398,7 +7336,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -7412,7 +7350,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C114">
         <v>107</v>
@@ -7426,7 +7364,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C115">
         <v>41</v>
@@ -7454,7 +7392,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C117">
         <v>12</v>
@@ -7468,7 +7406,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118">
         <v>17</v>
@@ -7482,7 +7420,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C119">
         <v>19</v>
@@ -7496,7 +7434,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C120">
         <v>12</v>
@@ -7510,7 +7448,7 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C121">
         <v>23</v>
@@ -7524,7 +7462,7 @@
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C122">
         <v>36</v>
@@ -7538,7 +7476,7 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C123">
         <v>17</v>
@@ -7552,7 +7490,7 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C124">
         <v>11</v>
@@ -7566,7 +7504,7 @@
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C125">
         <v>13</v>
@@ -7580,7 +7518,7 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C126">
         <v>19</v>
@@ -7594,7 +7532,7 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C127">
         <v>8</v>
@@ -7616,7 +7554,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7627,7 +7565,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -7643,10 +7581,10 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
@@ -7661,7 +7599,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7680,34 +7618,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>1</v>
@@ -7757,7 +7695,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>53</v>
@@ -7785,7 +7723,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>29</v>
@@ -7799,7 +7737,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>62</v>
@@ -7827,7 +7765,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>55</v>
@@ -7841,7 +7779,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>76</v>
@@ -7855,7 +7793,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>59</v>
@@ -7869,7 +7807,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -7911,7 +7849,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>118</v>
@@ -7925,7 +7863,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>103</v>
@@ -7953,7 +7891,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>52</v>

--- a/Data/GEF Field Trial/GEF_Woody canopy_2017.10.16_Mdoda.xlsx
+++ b/Data/GEF Field Trial/GEF_Woody canopy_2017.10.16_Mdoda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INT-01" sheetId="10" r:id="rId1"/>
@@ -5723,8 +5723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6355,6 +6355,15 @@
       <c r="B43" t="s">
         <v>49</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -7553,8 +7562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
